--- a/src/main/resources/static/import_data.xlsx
+++ b/src/main/resources/static/import_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>sản phẩm</t>
   </si>
@@ -31,22 +31,37 @@
     <t>số lượng nhập</t>
   </si>
   <si>
-    <t>loại sản phẩm</t>
-  </si>
-  <si>
     <t>giá</t>
   </si>
   <si>
     <t>VB-0912830</t>
   </si>
   <si>
-    <t>kokokk</t>
-  </si>
-  <si>
     <t>sửa th</t>
   </si>
   <si>
-    <t>sữa</t>
+    <t>mì</t>
+  </si>
+  <si>
+    <t>kem</t>
+  </si>
+  <si>
+    <t>vui vẻ</t>
+  </si>
+  <si>
+    <t>bánh</t>
+  </si>
+  <si>
+    <t>kokokkád</t>
+  </si>
+  <si>
+    <t>ád</t>
+  </si>
+  <si>
+    <t>kokokád</t>
+  </si>
+  <si>
+    <t>áddd</t>
   </si>
 </sst>
 </file>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,11 +416,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,19 +438,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>44907</v>
@@ -444,10 +455,87 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
         <v>10000</v>
       </c>
     </row>

--- a/src/main/resources/static/import_data.xlsx
+++ b/src/main/resources/static/import_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>sản phẩm</t>
   </si>
@@ -52,16 +52,64 @@
     <t>bánh</t>
   </si>
   <si>
-    <t>kokokkád</t>
-  </si>
-  <si>
-    <t>ád</t>
-  </si>
-  <si>
-    <t>kokokád</t>
-  </si>
-  <si>
-    <t>áddd</t>
+    <t>cốc</t>
+  </si>
+  <si>
+    <t>thia</t>
+  </si>
+  <si>
+    <t>giấy</t>
+  </si>
+  <si>
+    <t>bút</t>
+  </si>
+  <si>
+    <t>chảo</t>
+  </si>
+  <si>
+    <t>VB-0912831</t>
+  </si>
+  <si>
+    <t>VB-0912832</t>
+  </si>
+  <si>
+    <t>VB-0912833</t>
+  </si>
+  <si>
+    <t>VB-0912834</t>
+  </si>
+  <si>
+    <t>VB-0912835</t>
+  </si>
+  <si>
+    <t>VB-0912836</t>
+  </si>
+  <si>
+    <t>VB-0912837</t>
+  </si>
+  <si>
+    <t>VB-0912838</t>
+  </si>
+  <si>
+    <t>VB-0912839</t>
+  </si>
+  <si>
+    <t>VB-0912840</t>
+  </si>
+  <si>
+    <t>hải</t>
+  </si>
+  <si>
+    <t>lâm</t>
+  </si>
+  <si>
+    <t>lanh</t>
+  </si>
+  <si>
+    <t>liên</t>
+  </si>
+  <si>
+    <t>bích</t>
   </si>
 </sst>
 </file>
@@ -404,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>44907</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -464,19 +512,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>44907</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -484,19 +532,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>44907</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="F4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -504,19 +552,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>44907</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>5100</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -524,19 +572,139 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E6">
+        <v>6100</v>
+      </c>
+      <c r="F6">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E7">
+        <v>7100</v>
+      </c>
+      <c r="F7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E8">
+        <v>7100</v>
+      </c>
+      <c r="F8">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>44907</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10000</v>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E9">
+        <v>8100</v>
+      </c>
+      <c r="F9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E10">
+        <v>9100</v>
+      </c>
+      <c r="F10">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E11">
+        <v>1100</v>
+      </c>
+      <c r="F11">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44907</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
